--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value527.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value527.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9114392539758372</v>
+        <v>1.292101740837097</v>
       </c>
       <c r="B1">
-        <v>1.318644499265924</v>
+        <v>2.354964256286621</v>
       </c>
       <c r="C1">
-        <v>1.726048171359653</v>
+        <v>3.057630300521851</v>
       </c>
       <c r="D1">
-        <v>1.89278643088389</v>
+        <v>3.519988536834717</v>
       </c>
       <c r="E1">
-        <v>2.206451674931917</v>
+        <v>1.335824728012085</v>
       </c>
     </row>
   </sheetData>
